--- a/Requirements/CRS_V2.xlsx
+++ b/Requirements/CRS_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagedwael/Documents/GitHub/QA-Workshop_Foodies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagedwael/Documents/GitHub/QA-Workshop_Foodies/Requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E265EE88-D26F-4A46-BFE0-F7902BF7C084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE1FD49-FC7F-514B-B5F7-4B191E4B1465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Mariam moustafa</t>
   </si>
   <si>
-    <t>not clear enough</t>
-  </si>
-  <si>
     <t>CRS_FEAT005_002</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t xml:space="preserve">Customer can use Loyality System to get an discound on their order </t>
   </si>
   <si>
-    <t xml:space="preserve">for x points get y discound is there min or max limit </t>
-  </si>
-  <si>
     <t>CRS_FEAT007_001</t>
   </si>
   <si>
@@ -212,21 +206,12 @@
   <si>
     <t>Cash on Delivery shall be the only supported payment method</t>
   </si>
-  <si>
-    <t>CRS_FEAT008_001</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>User shall be able to Log out at any time</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -266,6 +251,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -477,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -556,6 +548,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,8 +860,8 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1227,9 +1222,7 @@
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="F10" s="27"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1254,16 +1247,16 @@
     </row>
     <row r="11" spans="1:27" ht="74" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="4"/>
@@ -1291,16 +1284,16 @@
     </row>
     <row r="12" spans="1:27" ht="65" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1328,16 +1321,16 @@
     </row>
     <row r="13" spans="1:27" ht="32" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1365,16 +1358,16 @@
     </row>
     <row r="14" spans="1:27" ht="54" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1402,21 +1395,19 @@
     </row>
     <row r="15" spans="1:27" ht="29" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="F15" s="16"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1441,16 +1432,16 @@
     </row>
     <row r="16" spans="1:27" ht="46" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="D16" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="4"/>
@@ -1478,16 +1469,16 @@
     </row>
     <row r="17" spans="1:27" ht="78" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="4"/>
@@ -1515,16 +1506,16 @@
     </row>
     <row r="18" spans="1:27" ht="57" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="4"/>
@@ -1551,18 +1542,10 @@
       <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="1:27" ht="41" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>60</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
